--- a/ArticleManage/main_working_folder/output_folders/Data 81 Preparation and Characterisation of/Data81_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 81 Preparation and Characterisation of/Data81_all_graphs_excel.xlsx
@@ -5,9 +5,9 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="400" sheetId="1" r:id="rId1"/>
-    <sheet name="500" sheetId="2" r:id="rId4"/>
-    <sheet name="600" sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 2 400  0-1-0-800 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 2 500  0-1-0-800 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 2 600  0-1-0-800 " sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -96,7 +96,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 400</a:t>
+              <a:t>Izoterma adsorpcji probki 400 z wykresu 'Figure 2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -155,12 +155,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'400'!$A$3:$A$50</c:f>
+              <c:f>'Figure 2 400  0-1-0-800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'400'!$B$3:$B$50</c:f>
+              <c:f>'Figure 2 400  0-1-0-800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -173,6 +173,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -242,6 +244,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="800"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -406,7 +410,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 500</a:t>
+              <a:t>Izoterma adsorpcji probki 500 z wykresu 'Figure 2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -465,12 +469,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'500'!$A$3:$A$50</c:f>
+              <c:f>'Figure 2 500  0-1-0-800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'500'!$B$3:$B$50</c:f>
+              <c:f>'Figure 2 500  0-1-0-800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -483,6 +487,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -552,6 +558,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="800"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -716,7 +724,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 600</a:t>
+              <a:t>Izoterma adsorpcji probki 600 z wykresu 'Figure 2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -775,12 +783,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'600'!$A$3:$A$50</c:f>
+              <c:f>'Figure 2 600  0-1-0-800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'600'!$B$3:$B$50</c:f>
+              <c:f>'Figure 2 600  0-1-0-800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -793,6 +801,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -862,6 +872,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="800"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 81 Preparation and Characterisation of/Data81_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 81 Preparation and Characterisation of/Data81_all_graphs_excel.xlsx
@@ -3090,7 +3090,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B63"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3111,485 +3111,85 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.2248</v>
+        <v>0.9954</v>
       </c>
       <c r="B3" s="0">
-        <v>409.1169</v>
+        <v>566.2731</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.2408</v>
+        <v>0.9003</v>
       </c>
       <c r="B4" s="0">
-        <v>415.6244</v>
+        <v>551.5003</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.2575</v>
+        <v>0.8018</v>
       </c>
       <c r="B5" s="0">
-        <v>422.2462</v>
+        <v>538.856</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.2741</v>
+        <v>0.6999</v>
       </c>
       <c r="B6" s="0">
-        <v>428.5487</v>
+        <v>525.1528</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.2908</v>
+        <v>0.6037</v>
       </c>
       <c r="B7" s="0">
-        <v>433.2553</v>
+        <v>510.3812</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.3073</v>
+        <v>0.504</v>
       </c>
       <c r="B8" s="0">
-        <v>437.0257</v>
+        <v>491.3636</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.3241</v>
+        <v>0.4009</v>
       </c>
       <c r="B9" s="0">
-        <v>446.4988</v>
+        <v>467.0375</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.3408</v>
+        <v>0.299</v>
       </c>
       <c r="B10" s="0">
-        <v>451.7161</v>
+        <v>438.4606</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.3574</v>
+        <v>0.197</v>
       </c>
       <c r="B11" s="0">
-        <v>456.7418</v>
+        <v>401.3843</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.3741</v>
+        <v>0.0962</v>
       </c>
       <c r="B12" s="0">
-        <v>461.6909</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.3907</v>
-      </c>
-      <c r="B13" s="0">
-        <v>465.759</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.4074</v>
-      </c>
-      <c r="B14" s="0">
-        <v>468.7759</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.4241</v>
-      </c>
-      <c r="B15" s="0">
-        <v>476.8703</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.4407</v>
-      </c>
-      <c r="B16" s="0">
-        <v>479.3807</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.4574</v>
-      </c>
-      <c r="B17" s="0">
-        <v>480.1291</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.474</v>
-      </c>
-      <c r="B18" s="0">
-        <v>483.878</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.4907</v>
-      </c>
-      <c r="B19" s="0">
-        <v>487.6907</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.5073</v>
-      </c>
-      <c r="B20" s="0">
-        <v>491.4397</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.524</v>
-      </c>
-      <c r="B21" s="0">
-        <v>494.6778</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.5407</v>
-      </c>
-      <c r="B22" s="0">
-        <v>498.1714</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.5573</v>
-      </c>
-      <c r="B23" s="0">
-        <v>501.5373</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.574</v>
-      </c>
-      <c r="B24" s="0">
-        <v>504.9031</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.5906</v>
-      </c>
-      <c r="B25" s="0">
-        <v>508.6627</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.6073</v>
-      </c>
-      <c r="B26" s="0">
-        <v>510.7411</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.6239</v>
-      </c>
-      <c r="B27" s="0">
-        <v>514.1283</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.6406</v>
-      </c>
-      <c r="B28" s="0">
-        <v>517.3771</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.6573</v>
-      </c>
-      <c r="B29" s="0">
-        <v>520.7642</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.6739</v>
-      </c>
-      <c r="B30" s="0">
-        <v>522.5447</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.6906</v>
-      </c>
-      <c r="B31" s="0">
-        <v>524.7359</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.7072</v>
-      </c>
-      <c r="B32" s="0">
-        <v>527.1357</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.7239</v>
-      </c>
-      <c r="B33" s="0">
-        <v>530.957</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.7405</v>
-      </c>
-      <c r="B34" s="0">
-        <v>533.0077</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.7572</v>
-      </c>
-      <c r="B35" s="0">
-        <v>534.9946</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.7739</v>
-      </c>
-      <c r="B36" s="0">
-        <v>536.9049</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.7905</v>
-      </c>
-      <c r="B37" s="0">
-        <v>537.9512</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.8072</v>
-      </c>
-      <c r="B38" s="0">
-        <v>538.3208</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.8238</v>
-      </c>
-      <c r="B39" s="0">
-        <v>542.2293</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.8405</v>
-      </c>
-      <c r="B40" s="0">
-        <v>544.2652</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.8571</v>
-      </c>
-      <c r="B41" s="0">
-        <v>546.035</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.8738</v>
-      </c>
-      <c r="B42" s="0">
-        <v>547.9326</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.8905</v>
-      </c>
-      <c r="B43" s="0">
-        <v>550.0216</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.9071</v>
-      </c>
-      <c r="B44" s="0">
-        <v>551.2808</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.9238</v>
-      </c>
-      <c r="B45" s="0">
-        <v>554.5828</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.9404</v>
-      </c>
-      <c r="B46" s="0">
-        <v>557.3102</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.9571</v>
-      </c>
-      <c r="B47" s="0">
-        <v>560.0377</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.9737</v>
-      </c>
-      <c r="B48" s="0">
-        <v>562.829</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.9904</v>
-      </c>
-      <c r="B49" s="0">
-        <v>566.1949</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.2073</v>
-      </c>
-      <c r="B50" s="0">
-        <v>405.623</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.1787</v>
-      </c>
-      <c r="B51" s="0">
-        <v>396.0917</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.1501</v>
-      </c>
-      <c r="B52" s="0">
-        <v>381.2483</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.134</v>
-      </c>
-      <c r="B53" s="0">
-        <v>371.7036</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>0.1157</v>
-      </c>
-      <c r="B54" s="0">
-        <v>361.0989</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0">
-        <v>0.0951</v>
-      </c>
-      <c r="B55" s="0">
-        <v>353.6839</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="0">
-        <v>0.0802</v>
-      </c>
-      <c r="B56" s="0">
-        <v>339.8883</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="0">
-        <v>0.0641</v>
-      </c>
-      <c r="B57" s="0">
-        <v>329.2811</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="0">
-        <v>0.0515</v>
-      </c>
-      <c r="B58" s="0">
-        <v>316.5455</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="0">
-        <v>0.0401</v>
-      </c>
-      <c r="B59" s="0">
-        <v>308.0583</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="0">
-        <v>0.0298</v>
-      </c>
-      <c r="B60" s="0">
-        <v>288.9458</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="0">
-        <v>0.0229</v>
-      </c>
-      <c r="B61" s="0">
-        <v>275.1417</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="0">
-        <v>0.0115</v>
-      </c>
-      <c r="B62" s="0">
-        <v>256.0303</v>
-      </c>
-    </row>
-    <row r="63"/>
+        <v>353.6826</v>
+      </c>
+    </row>
+    <row r="13"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -3598,7 +3198,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3619,509 +3219,269 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0012</v>
+        <v>0.9943</v>
       </c>
       <c r="B3" s="0">
-        <v>239.0822</v>
+        <v>611.9583</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0078</v>
+        <v>0.9003</v>
       </c>
       <c r="B4" s="0">
-        <v>251.7719</v>
+        <v>584.4352</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.021</v>
+        <v>0.7995</v>
       </c>
       <c r="B5" s="0">
-        <v>278.434</v>
+        <v>570.7309</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0152</v>
+        <v>0.6999</v>
       </c>
       <c r="B6" s="0">
-        <v>263.412</v>
+        <v>555.9629</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0354</v>
+        <v>0.6014</v>
       </c>
       <c r="B7" s="0">
-        <v>294.4374</v>
+        <v>536.9441</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0482</v>
+        <v>0.5017</v>
       </c>
       <c r="B8" s="0">
-        <v>311.091</v>
+        <v>509.4271</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0633</v>
+        <v>0.3986</v>
       </c>
       <c r="B9" s="0">
-        <v>320.9454</v>
+        <v>479.789</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0792</v>
+        <v>0.3013</v>
       </c>
       <c r="B10" s="0">
-        <v>334.2379</v>
+        <v>445.8951</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0958</v>
+        <v>0.2005</v>
       </c>
       <c r="B11" s="0">
-        <v>345.4562</v>
+        <v>403.5055</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.1108</v>
+        <v>0.0985</v>
       </c>
       <c r="B12" s="0">
-        <v>352.6467</v>
+        <v>349.4305</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.1288</v>
+        <v>0.0905</v>
       </c>
       <c r="B13" s="0">
-        <v>365.3092</v>
+        <v>343.0645</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.1454</v>
+        <v>0.0802</v>
       </c>
       <c r="B14" s="0">
-        <v>374.1654</v>
+        <v>335.6386</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.1621</v>
+        <v>0.0699</v>
       </c>
       <c r="B15" s="0">
-        <v>383.0215</v>
+        <v>329.275</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.1787</v>
+        <v>0.0596</v>
       </c>
       <c r="B16" s="0">
-        <v>391.6224</v>
+        <v>319.7242</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.1961</v>
+        <v>0.0493</v>
       </c>
       <c r="B17" s="0">
-        <v>399.1755</v>
+        <v>310.1734</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.2106</v>
+        <v>0.0389</v>
       </c>
       <c r="B18" s="0">
-        <v>403.9353</v>
+        <v>302.7475</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.2287</v>
+        <v>0.0298</v>
       </c>
       <c r="B19" s="0">
-        <v>415.1904</v>
+        <v>293.1955</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.2454</v>
+        <v>0.0195</v>
       </c>
       <c r="B20" s="0">
-        <v>422.3229</v>
+        <v>276.2077</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.262</v>
+        <v>0.0092</v>
       </c>
       <c r="B21" s="0">
-        <v>429.3277</v>
+        <v>252.8455</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.2787</v>
+        <v>0.0069</v>
       </c>
       <c r="B22" s="0">
-        <v>436.141</v>
+        <v>240.0989</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.296</v>
+        <v>0.0034</v>
       </c>
       <c r="B23" s="0">
-        <v>442.2226</v>
+        <v>231.6033</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.3106</v>
+        <v>0.0023</v>
       </c>
       <c r="B24" s="0">
-        <v>445.8705</v>
+        <v>220.9803</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.3287</v>
+        <v>0.0023</v>
       </c>
       <c r="B25" s="0">
-        <v>455.6871</v>
+        <v>210.3561</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.3453</v>
+        <v>0.0011</v>
       </c>
       <c r="B26" s="0">
-        <v>461.8619</v>
+        <v>202.9204</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.362</v>
+        <v>0</v>
       </c>
       <c r="B27" s="0">
-        <v>467.8453</v>
+        <v>189.1102</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.3786</v>
+        <v>0</v>
       </c>
       <c r="B28" s="0">
-        <v>474.0712</v>
+        <v>178.4861</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.3956</v>
+        <v>0</v>
       </c>
       <c r="B29" s="0">
-        <v>479.9764</v>
+        <v>164.6746</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.4106</v>
+        <v>-0.0011</v>
       </c>
       <c r="B30" s="0">
-        <v>484.4214</v>
+        <v>150.8644</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.4286</v>
+        <v>-0.0011</v>
       </c>
       <c r="B31" s="0">
-        <v>489.4804</v>
+        <v>139.1778</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.4453</v>
+        <v>-0.0011</v>
       </c>
       <c r="B32" s="0">
-        <v>493.2932</v>
+        <v>125.3664</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.4619</v>
+        <v>-0.0011</v>
       </c>
       <c r="B33" s="0">
-        <v>498.3189</v>
+        <v>113.6798</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.4786</v>
+        <v>-0.0023</v>
       </c>
       <c r="B34" s="0">
-        <v>503.1531</v>
+        <v>99.8696</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.4964</v>
+        <v>-0.0023</v>
       </c>
       <c r="B35" s="0">
-        <v>506.6596</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.5105</v>
-      </c>
-      <c r="B36" s="0">
-        <v>509.6097</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.5285</v>
-      </c>
-      <c r="B37" s="0">
-        <v>517.145</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.5452</v>
-      </c>
-      <c r="B38" s="0">
-        <v>521.7877</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.5619</v>
-      </c>
-      <c r="B39" s="0">
-        <v>526.2389</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.5785</v>
-      </c>
-      <c r="B40" s="0">
-        <v>530.4347</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.5964</v>
-      </c>
-      <c r="B41" s="0">
-        <v>534.6044</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.6104</v>
-      </c>
-      <c r="B42" s="0">
-        <v>535.6916</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.6285</v>
-      </c>
-      <c r="B43" s="0">
-        <v>541.8091</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.6451</v>
-      </c>
-      <c r="B44" s="0">
-        <v>545.4304</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.6618</v>
-      </c>
-      <c r="B45" s="0">
-        <v>548.9558</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.6785</v>
-      </c>
-      <c r="B46" s="0">
-        <v>551.2045</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.6951</v>
-      </c>
-      <c r="B47" s="0">
-        <v>554.4427</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.7108</v>
-      </c>
-      <c r="B48" s="0">
-        <v>554.9595</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.7284</v>
-      </c>
-      <c r="B49" s="0">
-        <v>560.2168</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.7451</v>
-      </c>
-      <c r="B50" s="0">
-        <v>562.3697</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.7617</v>
-      </c>
-      <c r="B51" s="0">
-        <v>566.1888</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.7784</v>
-      </c>
-      <c r="B52" s="0">
-        <v>568.3034</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.7951</v>
-      </c>
-      <c r="B53" s="0">
-        <v>568.5092</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>0.8117</v>
-      </c>
-      <c r="B54" s="0">
-        <v>570.5025</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0">
-        <v>0.8284</v>
-      </c>
-      <c r="B55" s="0">
-        <v>575.6112</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="0">
-        <v>0.845</v>
-      </c>
-      <c r="B56" s="0">
-        <v>577.8152</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="0">
-        <v>0.8617</v>
-      </c>
-      <c r="B57" s="0">
-        <v>579.6744</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="0">
-        <v>0.8783</v>
-      </c>
-      <c r="B58" s="0">
-        <v>581.7634</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="0">
-        <v>0.895</v>
-      </c>
-      <c r="B59" s="0">
-        <v>583.8525</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="0">
-        <v>0.9117</v>
-      </c>
-      <c r="B60" s="0">
-        <v>586.963</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="0">
-        <v>0.9283</v>
-      </c>
-      <c r="B61" s="0">
-        <v>592.2441</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="0">
-        <v>0.945</v>
-      </c>
-      <c r="B62" s="0">
-        <v>596.7591</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="0">
-        <v>0.9616</v>
-      </c>
-      <c r="B63" s="0">
-        <v>601.6572</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="0">
-        <v>0.9783</v>
-      </c>
-      <c r="B64" s="0">
-        <v>606.5552</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="0">
-        <v>0.9943</v>
-      </c>
-      <c r="B65" s="0">
-        <v>613.0207</v>
-      </c>
-    </row>
-    <row r="66"/>
+        <v>87.1206</v>
+      </c>
+    </row>
+    <row r="36"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -4130,7 +3490,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B72"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4151,557 +3511,237 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.002</v>
+        <v>0.9954</v>
       </c>
       <c r="B3" s="0">
-        <v>95.033</v>
+        <v>547.1496</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0009</v>
+        <v>0.9003</v>
       </c>
       <c r="B4" s="0">
-        <v>164.7474</v>
+        <v>528.1271</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0017</v>
+        <v>0.8018</v>
       </c>
       <c r="B5" s="0">
-        <v>142.4821</v>
+        <v>513.3579</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0015</v>
+        <v>0.701</v>
       </c>
       <c r="B6" s="0">
-        <v>124.8505</v>
+        <v>497.5288</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0012</v>
+        <v>0.6002</v>
       </c>
       <c r="B7" s="0">
-        <v>112.847</v>
+        <v>478.5124</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0001</v>
+        <v>0.5006</v>
       </c>
       <c r="B8" s="0">
-        <v>188.7744</v>
+        <v>455.2451</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0001</v>
+        <v>0.3998</v>
       </c>
       <c r="B9" s="0">
-        <v>79.1753</v>
+        <v>427.7293</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0038</v>
+        <v>0.299</v>
       </c>
       <c r="B10" s="0">
-        <v>205.6524</v>
+        <v>395.9639</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0083</v>
+        <v>0.2005</v>
       </c>
       <c r="B11" s="0">
-        <v>225.9556</v>
+        <v>361.0088</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.0181</v>
+        <v>0.1008</v>
       </c>
       <c r="B12" s="0">
-        <v>247.6677</v>
+        <v>316.4932</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.0305</v>
+        <v>0.0905</v>
       </c>
       <c r="B13" s="0">
-        <v>263.3189</v>
+        <v>310.1296</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0446</v>
+        <v>0.0802</v>
       </c>
       <c r="B14" s="0">
-        <v>278.1456</v>
+        <v>303.7661</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.0607</v>
+        <v>0.0699</v>
       </c>
       <c r="B15" s="0">
-        <v>288.0664</v>
+        <v>297.4025</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.0757</v>
+        <v>0.0596</v>
       </c>
       <c r="B16" s="0">
-        <v>299.2865</v>
+        <v>291.039</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.0927</v>
+        <v>0.0504</v>
       </c>
       <c r="B17" s="0">
-        <v>308.8231</v>
+        <v>283.6118</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.1071</v>
+        <v>0.0389</v>
       </c>
       <c r="B18" s="0">
-        <v>319.1953</v>
+        <v>276.187</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.1242</v>
+        <v>0.0298</v>
       </c>
       <c r="B19" s="0">
-        <v>328.9247</v>
+        <v>266.635</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.1409</v>
+        <v>0.0206</v>
       </c>
       <c r="B20" s="0">
-        <v>336.5679</v>
+        <v>251.7709</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.1575</v>
+        <v>0.0103</v>
       </c>
       <c r="B21" s="0">
-        <v>344.0196</v>
+        <v>231.596</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.1742</v>
+        <v>0.0069</v>
       </c>
       <c r="B22" s="0">
-        <v>351.6628</v>
+        <v>219.913</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.1919</v>
+        <v>0.0046</v>
       </c>
       <c r="B23" s="0">
-        <v>358.4062</v>
+        <v>210.3537</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.2071</v>
+        <v>0.0034</v>
       </c>
       <c r="B24" s="0">
-        <v>362.9694</v>
+        <v>202.918</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.2242</v>
+        <v>0.0011</v>
       </c>
       <c r="B25" s="0">
-        <v>371.9111</v>
+        <v>191.2338</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.2408</v>
+        <v>0.0011</v>
       </c>
       <c r="B26" s="0">
-        <v>378.0221</v>
+        <v>169.9855</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.2575</v>
+        <v>0</v>
       </c>
       <c r="B27" s="0">
-        <v>383.8778</v>
+        <v>156.1753</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.2741</v>
+        <v>-0.0011</v>
       </c>
       <c r="B28" s="0">
-        <v>389.6696</v>
+        <v>142.3651</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.2918</v>
+        <v>-0.0011</v>
       </c>
       <c r="B29" s="0">
-        <v>394.817</v>
+        <v>116.8671</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.3068</v>
+        <v>-0.0023</v>
       </c>
       <c r="B30" s="0">
-        <v>398.7953</v>
+        <v>104.1193</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.3241</v>
+        <v>-0.0011</v>
       </c>
       <c r="B31" s="0">
-        <v>406.6621</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.3408</v>
-      </c>
-      <c r="B32" s="0">
-        <v>411.9432</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.3574</v>
-      </c>
-      <c r="B33" s="0">
-        <v>417.2881</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.3741</v>
-      </c>
-      <c r="B34" s="0">
-        <v>422.8884</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.3907</v>
-      </c>
-      <c r="B35" s="0">
-        <v>427.4034</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.4066</v>
-      </c>
-      <c r="B36" s="0">
-        <v>428.4298</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.4241</v>
-      </c>
-      <c r="B37" s="0">
-        <v>436.1781</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.4407</v>
-      </c>
-      <c r="B38" s="0">
-        <v>441.0123</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.4574</v>
-      </c>
-      <c r="B39" s="0">
-        <v>445.7826</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.474</v>
-      </c>
-      <c r="B40" s="0">
-        <v>450.4253</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.4907</v>
-      </c>
-      <c r="B41" s="0">
-        <v>454.3019</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.5073</v>
-      </c>
-      <c r="B42" s="0">
-        <v>457.7529</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.524</v>
-      </c>
-      <c r="B43" s="0">
-        <v>463.3958</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.5407</v>
-      </c>
-      <c r="B44" s="0">
-        <v>467.4001</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.5573</v>
-      </c>
-      <c r="B45" s="0">
-        <v>471.2128</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.574</v>
-      </c>
-      <c r="B46" s="0">
-        <v>475.0256</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.5906</v>
-      </c>
-      <c r="B47" s="0">
-        <v>477.7531</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.6073</v>
-      </c>
-      <c r="B48" s="0">
-        <v>480.6066</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.6239</v>
-      </c>
-      <c r="B49" s="0">
-        <v>485.3786</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.6406</v>
-      </c>
-      <c r="B50" s="0">
-        <v>488.4252</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.6573</v>
-      </c>
-      <c r="B51" s="0">
-        <v>491.4719</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.6739</v>
-      </c>
-      <c r="B52" s="0">
-        <v>494.5186</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.6906</v>
-      </c>
-      <c r="B53" s="0">
-        <v>497.3372</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>0.7072</v>
-      </c>
-      <c r="B54" s="0">
-        <v>498.8882</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0">
-        <v>0.7239</v>
-      </c>
-      <c r="B55" s="0">
-        <v>503.4564</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="0">
-        <v>0.7405</v>
-      </c>
-      <c r="B56" s="0">
-        <v>506.003</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="0">
-        <v>0.7572</v>
-      </c>
-      <c r="B57" s="0">
-        <v>508.8369</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="0">
-        <v>0.7739</v>
-      </c>
-      <c r="B58" s="0">
-        <v>511.9048</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="0">
-        <v>0.7905</v>
-      </c>
-      <c r="B59" s="0">
-        <v>513.6747</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="0">
-        <v>0.8072</v>
-      </c>
-      <c r="B60" s="0">
-        <v>514.8841</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="0">
-        <v>0.8238</v>
-      </c>
-      <c r="B61" s="0">
-        <v>519.9595</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="0">
-        <v>0.8405</v>
-      </c>
-      <c r="B62" s="0">
-        <v>522.3678</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="0">
-        <v>0.8571</v>
-      </c>
-      <c r="B63" s="0">
-        <v>524.4568</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="0">
-        <v>0.8738</v>
-      </c>
-      <c r="B64" s="0">
-        <v>526.482</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="0">
-        <v>0.8905</v>
-      </c>
-      <c r="B65" s="0">
-        <v>527.5496</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="0">
-        <v>0.9071</v>
-      </c>
-      <c r="B66" s="0">
-        <v>528.9293</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="0">
-        <v>0.9238</v>
-      </c>
-      <c r="B67" s="0">
-        <v>534.1537</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="0">
-        <v>0.9404</v>
-      </c>
-      <c r="B68" s="0">
-        <v>537.2004</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="0">
-        <v>0.9571</v>
-      </c>
-      <c r="B69" s="0">
-        <v>540.3747</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="0">
-        <v>0.9737</v>
-      </c>
-      <c r="B70" s="0">
-        <v>543.4214</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="0">
-        <v>0.9904</v>
-      </c>
-      <c r="B71" s="0">
-        <v>545.404</v>
-      </c>
-    </row>
-    <row r="72"/>
+        <v>94.5563</v>
+      </c>
+    </row>
+    <row r="32"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 81 Preparation and Characterisation of/Data81_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 81 Preparation and Characterisation of/Data81_all_graphs_excel.xlsx
@@ -5,21 +5,33 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 2 400  0-1-0-800 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 2 500  0-1-0-800 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 2 600  0-1-0-800 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 2 400  0&amp;1&amp;0&amp;800 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 2 500  0&amp;1&amp;0&amp;800 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 2 600  0&amp;1&amp;0&amp;800 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 3 IR1  0&amp;1&amp;0&amp;800 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 3 IR2  0&amp;1&amp;0&amp;800 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 3 IR3  0&amp;1&amp;0&amp;800 " sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>X</t>
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>IR1</t>
+  </si>
+  <si>
+    <t>IR2</t>
+  </si>
+  <si>
+    <t>IR3</t>
   </si>
 </sst>
 </file>
@@ -155,12 +167,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 400  0-1-0-800 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 400  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 400  0-1-0-800 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 400  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -469,12 +481,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 500  0-1-0-800 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 500  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 500  0-1-0-800 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 500  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -783,12 +795,954 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 600  0-1-0-800 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 600  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 600  0-1-0-800 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 600  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="800"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki IR1 z wykresu 'Figure 3' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 3 IR1  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 3 IR1  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="800"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki IR2 z wykresu 'Figure 3' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 3 IR2  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 3 IR2  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="800"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki IR3 z wykresu 'Figure 3' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 3 IR3  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 3 IR3  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1125,6 +2079,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
@@ -2168,6 +3242,1569 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2776,6 +5413,111 @@
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3746,4 +6488,672 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9962</v>
+      </c>
+      <c r="B3" s="0">
+        <v>815.5396</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9008</v>
+      </c>
+      <c r="B4" s="0">
+        <v>756.259</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.7995</v>
+      </c>
+      <c r="B5" s="0">
+        <v>702.7338</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.703</v>
+      </c>
+      <c r="B6" s="0">
+        <v>649.2086</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.6027</v>
+      </c>
+      <c r="B7" s="0">
+        <v>595.6835</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.5036</v>
+      </c>
+      <c r="B8" s="0">
+        <v>543.8849</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.4011</v>
+      </c>
+      <c r="B9" s="0">
+        <v>490.3597</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.3019</v>
+      </c>
+      <c r="B10" s="0">
+        <v>433.3813</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.2</v>
+      </c>
+      <c r="B11" s="0">
+        <v>375.2518</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.1003</v>
+      </c>
+      <c r="B12" s="0">
+        <v>310.2158</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.0899</v>
+      </c>
+      <c r="B13" s="0">
+        <v>301.5827</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.0795</v>
+      </c>
+      <c r="B14" s="0">
+        <v>294.1007</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.0701</v>
+      </c>
+      <c r="B15" s="0">
+        <v>286.6187</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.0597</v>
+      </c>
+      <c r="B16" s="0">
+        <v>277.4101</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.0499</v>
+      </c>
+      <c r="B17" s="0">
+        <v>268.777</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.0405</v>
+      </c>
+      <c r="B18" s="0">
+        <v>257.8417</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.0318</v>
+      </c>
+      <c r="B19" s="0">
+        <v>249.2086</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.0208</v>
+      </c>
+      <c r="B20" s="0">
+        <v>235.9712</v>
+      </c>
+    </row>
+    <row r="21"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9956</v>
+      </c>
+      <c r="B3" s="0">
+        <v>613.5252</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9008</v>
+      </c>
+      <c r="B4" s="0">
+        <v>586.4748</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.8</v>
+      </c>
+      <c r="B5" s="0">
+        <v>570.3597</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.7014</v>
+      </c>
+      <c r="B6" s="0">
+        <v>555.3957</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.6027</v>
+      </c>
+      <c r="B7" s="0">
+        <v>536.4029</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.5014</v>
+      </c>
+      <c r="B8" s="0">
+        <v>510.5036</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.3989</v>
+      </c>
+      <c r="B9" s="0">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.2986</v>
+      </c>
+      <c r="B10" s="0">
+        <v>445.4676</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.2</v>
+      </c>
+      <c r="B11" s="0">
+        <v>401.1511</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.0986</v>
+      </c>
+      <c r="B12" s="0">
+        <v>348.777</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.0904</v>
+      </c>
+      <c r="B13" s="0">
+        <v>343.0216</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.08</v>
+      </c>
+      <c r="B14" s="0">
+        <v>336.1151</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.0707</v>
+      </c>
+      <c r="B15" s="0">
+        <v>328.6331</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.0581</v>
+      </c>
+      <c r="B16" s="0">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.0493</v>
+      </c>
+      <c r="B17" s="0">
+        <v>312.518</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.0384</v>
+      </c>
+      <c r="B18" s="0">
+        <v>301.0072</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.0307</v>
+      </c>
+      <c r="B19" s="0">
+        <v>291.7986</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.0203</v>
+      </c>
+      <c r="B20" s="0">
+        <v>275.1079</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.0104</v>
+      </c>
+      <c r="B21" s="0">
+        <v>252.6619</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.0082</v>
+      </c>
+      <c r="B22" s="0">
+        <v>244.6043</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.0044</v>
+      </c>
+      <c r="B23" s="0">
+        <v>229.6403</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.0033</v>
+      </c>
+      <c r="B24" s="0">
+        <v>215.8273</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.0011</v>
+      </c>
+      <c r="B25" s="0">
+        <v>203.1655</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>-0.0005</v>
+      </c>
+      <c r="B26" s="0">
+        <v>185.8993</v>
+      </c>
+    </row>
+    <row r="27"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9951</v>
+      </c>
+      <c r="B3" s="0">
+        <v>606.0432</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9025</v>
+      </c>
+      <c r="B4" s="0">
+        <v>591.0791</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.8016</v>
+      </c>
+      <c r="B5" s="0">
+        <v>565.1799</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.7014</v>
+      </c>
+      <c r="B6" s="0">
+        <v>528.9209</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.6016</v>
+      </c>
+      <c r="B7" s="0">
+        <v>489.7842</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.5008</v>
+      </c>
+      <c r="B8" s="0">
+        <v>448.3453</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.3989</v>
+      </c>
+      <c r="B9" s="0">
+        <v>409.7842</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.3008</v>
+      </c>
+      <c r="B10" s="0">
+        <v>371.223</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.2016</v>
+      </c>
+      <c r="B11" s="0">
+        <v>329.7842</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.1003</v>
+      </c>
+      <c r="B12" s="0">
+        <v>282.5899</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.0915</v>
+      </c>
+      <c r="B13" s="0">
+        <v>279.1367</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.0811</v>
+      </c>
+      <c r="B14" s="0">
+        <v>272.8058</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.0712</v>
+      </c>
+      <c r="B15" s="0">
+        <v>266.4748</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.0608</v>
+      </c>
+      <c r="B16" s="0">
+        <v>258.9928</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.0499</v>
+      </c>
+      <c r="B17" s="0">
+        <v>249.7842</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.0405</v>
+      </c>
+      <c r="B18" s="0">
+        <v>241.1511</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.0301</v>
+      </c>
+      <c r="B19" s="0">
+        <v>230.7914</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.0208</v>
+      </c>
+      <c r="B20" s="0">
+        <v>217.554</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.0099</v>
+      </c>
+      <c r="B21" s="0">
+        <v>195.6835</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.0071</v>
+      </c>
+      <c r="B22" s="0">
+        <v>185.3237</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.0049</v>
+      </c>
+      <c r="B23" s="0">
+        <v>174.3885</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.0022</v>
+      </c>
+      <c r="B24" s="0">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.0011</v>
+      </c>
+      <c r="B25" s="0">
+        <v>150.2158</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.0005</v>
+      </c>
+      <c r="B26" s="0">
+        <v>135.2518</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>-0.0005</v>
+      </c>
+      <c r="B27" s="0">
+        <v>122.0144</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>-0.0005</v>
+      </c>
+      <c r="B28" s="0">
+        <v>111.6547</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>-0.0005</v>
+      </c>
+      <c r="B29" s="0">
+        <v>103.0216</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>-0.0005</v>
+      </c>
+      <c r="B30" s="0">
+        <v>94.3885</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>-0.0005</v>
+      </c>
+      <c r="B31" s="0">
+        <v>82.8777</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>-0.0011</v>
+      </c>
+      <c r="B32" s="0">
+        <v>73.0935</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>-0.0011</v>
+      </c>
+      <c r="B33" s="0">
+        <v>62.7338</v>
+      </c>
+    </row>
+    <row r="34"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>